--- a/data-to-tables.xlsx
+++ b/data-to-tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Response time analysis</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>ms</t>
+  </si>
+  <si>
+    <t>Matlab ms</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>$m_2$</t>
+  </si>
+  <si>
+    <t>$m_1$</t>
+  </si>
+  <si>
+    <t>$m_3$</t>
+  </si>
+  <si>
+    <t>$m_8$</t>
   </si>
 </sst>
 </file>
@@ -380,15 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F4:N10"/>
+  <dimension ref="F4:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="6:14" x14ac:dyDescent="0.25">
@@ -513,6 +532,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data-to-tables.xlsx
+++ b/data-to-tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Response time analysis</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>$m_8$</t>
+  </si>
+  <si>
+    <t>Inchron</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F4:N12"/>
+  <dimension ref="F4:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="J11" sqref="J11:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +569,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
